--- a/Planejamento Dengue.xlsx
+++ b/Planejamento Dengue.xlsx
@@ -255,14 +255,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -273,21 +271,51 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -295,26 +323,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -328,27 +341,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,7 +660,7 @@
   <dimension ref="B1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="J15" sqref="C15:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,45 +675,45 @@
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="20"/>
+      <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="18"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="13"/>
       <c r="F3" s="14"/>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>42475</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>42479</v>
       </c>
       <c r="J3" s="13" t="s">
@@ -718,22 +722,22 @@
       <c r="K3" s="14"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="13"/>
       <c r="F4" s="14"/>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>42475</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>42479</v>
       </c>
       <c r="J4" s="13" t="s">
@@ -742,170 +746,170 @@
       <c r="K4" s="14"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="33" t="s">
+      <c r="D5" s="22"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="12">
         <v>42475</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="12">
         <v>42479</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="32"/>
+      <c r="K5" s="26"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28" t="s">
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="10">
         <v>42475</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="10">
         <v>42479</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="27"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="12" t="s">
+      <c r="D7" s="32"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="12">
         <v>42475</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="12">
         <v>42480</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="14"/>
+      <c r="K7" s="26"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="12" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="12">
         <v>42475</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="12">
         <v>42480</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="14"/>
+      <c r="K8" s="26"/>
     </row>
     <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="12" t="s">
+      <c r="D9" s="33"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="12">
         <v>42482</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="14"/>
+      <c r="K9" s="26"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="13" t="s">
+      <c r="D10" s="33"/>
+      <c r="E10" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="12" t="s">
+      <c r="F10" s="26"/>
+      <c r="G10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="12">
         <v>42482</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="35">
         <v>42482</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="14"/>
+      <c r="K10" s="26"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>9</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="23"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="13" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="14"/>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>42485</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>42488</v>
       </c>
       <c r="J11" s="13" t="s">
@@ -914,144 +918,144 @@
       <c r="K11" s="14"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="12" t="s">
+      <c r="D12" s="32"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="12">
         <v>42480</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="12">
         <v>42492</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="14"/>
+      <c r="K12" s="26"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>11</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="12" t="s">
+      <c r="D13" s="32"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="12">
         <v>42480</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="12">
         <v>42492</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="14"/>
+      <c r="K13" s="26"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>12</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="13" t="s">
+      <c r="D14" s="32"/>
+      <c r="E14" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="12" t="s">
+      <c r="F14" s="26"/>
+      <c r="G14" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="36">
         <v>42493</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="36">
         <v>42496</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="J14" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="14"/>
+      <c r="K14" s="26"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <v>13</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="12" t="s">
+      <c r="D15" s="32"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="36">
         <v>42480</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="12">
         <v>42489</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="J15" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="14"/>
+      <c r="K15" s="26"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>14</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="12" t="s">
+      <c r="D16" s="32"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="36">
         <v>42480</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="36">
         <v>42489</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="14"/>
+      <c r="K16" s="26"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <v>15</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="21"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="13"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="7">
         <v>42480</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="7">
         <v>42489</v>
       </c>
       <c r="J17" s="13" t="s">
@@ -1060,22 +1064,22 @@
       <c r="K17" s="14"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="5">
+      <c r="B18" s="3">
         <v>16</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="21"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="13"/>
       <c r="F18" s="14"/>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="7">
         <v>42480</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="7">
         <v>42489</v>
       </c>
       <c r="J18" s="13" t="s">
@@ -1084,22 +1088,22 @@
       <c r="K18" s="14"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>17</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="21"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="13"/>
       <c r="F19" s="14"/>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="7">
         <v>42480</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="7">
         <v>42489</v>
       </c>
       <c r="J19" s="13" t="s">
@@ -1108,24 +1112,24 @@
       <c r="K19" s="14"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>18</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="21"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="13" t="s">
         <v>40</v>
       </c>
       <c r="F20" s="14"/>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="7">
         <v>42491</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="7">
         <v>42501</v>
       </c>
       <c r="J20" s="13" t="s">
@@ -1134,22 +1138,22 @@
       <c r="K20" s="14"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="5">
+      <c r="B21" s="3">
         <v>19</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="21"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="13"/>
       <c r="F21" s="14"/>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="7">
         <v>42491</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="7">
         <v>42503</v>
       </c>
       <c r="J21" s="13" t="s">
@@ -1159,6 +1163,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
@@ -1175,47 +1220,6 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
